--- a/scripts/Switches.xlsx
+++ b/scripts/Switches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup-apo\Launchmycraft\git_repository\iogr_emotracker_apokalysme\iogr_emotracker_apokalysme\autotracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup-apo\Launchmycraft\git_repository\iogr_emotracker_apokalysme\iogr_emotracker_apokalysme\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A87CC1-0303-459E-B8A3-CE84D31893C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B9A13E-C192-467D-8409-448EC73AFFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="762">
   <si>
     <t>ID</t>
   </si>
@@ -2360,6 +2362,9 @@
 0x7e0a06 - 0x80
 Lilly in Seaside
 0x7e0a0d - 0x80</t>
+  </si>
+  <si>
+    <t>Herbs in inventory stack (BCD Format)</t>
   </si>
 </sst>
 </file>
@@ -4493,8 +4498,8 @@
   <dimension ref="A1:T1237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="B4:G4"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D168" sqref="D168:K168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -10800,14 +10805,16 @@
         <v>AAA</v>
       </c>
       <c r="C172" s="13"/>
-      <c r="D172" s="47"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="21"/>
-      <c r="H172" s="48"/>
-      <c r="I172" s="12"/>
-      <c r="J172" s="12"/>
-      <c r="K172" s="21"/>
+      <c r="D172" s="227" t="s">
+        <v>761</v>
+      </c>
+      <c r="E172" s="226"/>
+      <c r="F172" s="226"/>
+      <c r="G172" s="226"/>
+      <c r="H172" s="226"/>
+      <c r="I172" s="226"/>
+      <c r="J172" s="226"/>
+      <c r="K172" s="226"/>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="12">
@@ -24685,7 +24692,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="58">
     <mergeCell ref="P11:T11"/>
     <mergeCell ref="P24:T24"/>
     <mergeCell ref="D168:K168"/>
@@ -24698,6 +24705,7 @@
     <mergeCell ref="D92:K92"/>
     <mergeCell ref="D93:K93"/>
     <mergeCell ref="D94:K94"/>
+    <mergeCell ref="D172:K172"/>
     <mergeCell ref="D182:K182"/>
     <mergeCell ref="D183:K183"/>
     <mergeCell ref="D184:K184"/>
